--- a/loving.xlsx
+++ b/loving.xlsx
@@ -50,22 +50,22 @@
     <t>boxnumber</t>
   </si>
   <si>
-    <t>Young Love Comic aya 2019年7月號</t>
+    <t>구글의 아침은 자유가 시작된다 (구글 인사 책임자가 직접 공개하는 인재 등용의 비밀)</t>
   </si>
   <si>
-    <t>편집부</t>
+    <t>라즐로 복</t>
   </si>
   <si>
-    <t>宙出版</t>
+    <t>알에이치코리아</t>
   </si>
   <si>
-    <t>2019</t>
+    <t>2015</t>
   </si>
   <si>
-    <t>018815079X</t>
+    <t>9788925555980</t>
   </si>
   <si>
-    <t>10,060</t>
+    <t>18,000</t>
   </si>
   <si>
     <t>10</t>
